--- a/SourceCode/2023/Sep2023/Projects/Yannick/ACME_Work_Item_5/Tests/Tests.xlsx
+++ b/SourceCode/2023/Sep2023/Projects/Yannick/ACME_Work_Item_5/Tests/Tests.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{27B09E86-E7F7-40F4-8A4B-0931C3A3679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E16D29D-363D-4A14-96A7-2A4C4F7A038F}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A09313D-B800-4D22-8B31-BE718C94FA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4270" yWindow="-14510" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27180" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Result" sheetId="2" r:id="rId2"/>
+    <sheet name="TransactionData" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Result!$A$1:$D$1</definedName>
@@ -29,31 +30,31 @@
     <t>WorkflowFile</t>
   </si>
   <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>Framework\InitAllSettings.xaml</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
+    <t>Framework\InitAllApplications.xaml</t>
+  </si>
+  <si>
+    <t>Framework\CloseAllApplications.xaml</t>
+  </si>
+  <si>
+    <t>SystemException</t>
+  </si>
+  <si>
+    <t>Framework\KillAllProcesses.xaml</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Framework\CloseAllApplications.xaml</t>
-  </si>
-  <si>
-    <t>Framework\InitAllSettings.xaml</t>
-  </si>
-  <si>
-    <t>Framework\InitAllApplications.xaml</t>
-  </si>
-  <si>
-    <t>ExpectedResult</t>
-  </si>
-  <si>
-    <t>SystemException</t>
-  </si>
-  <si>
-    <t>Framework\KillAllProcesses.xaml</t>
   </si>
 </sst>
 </file>
@@ -402,95 +403,95 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="41.90625" customWidth="1"/>
+    <col min="1" max="2" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{7198B273-8CEB-4936-858C-3C618DA468FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Success,BusinessException,SystemException"</formula1>
     </dataValidation>
   </dataValidations>
@@ -503,112 +504,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.36328125" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="135.6328125" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="135.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.5">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{CB13DA15-0017-4E26-927A-C3254031AF44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Success,BusinessException,SystemException"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0715940C-E453-476F-8CC5-A56780367E75}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>